--- a/DMA Competency Questions.xlsx
+++ b/DMA Competency Questions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DC41A3-3F81-4466-842F-26B6FD3E5117}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B668ED3-7CDB-45C0-A03F-BDEF7F6038F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -965,7 +965,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -997,12 +997,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1038,8 +1075,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1325,7 +1371,7 @@
   <dimension ref="C3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:M18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1543,6 +1589,19 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+    </row>
     <row r="20" spans="3:13" ht="23.5" x14ac:dyDescent="0.35">
       <c r="C20" s="15" t="s">
         <v>92</v>
@@ -1559,9 +1618,10 @@
       <c r="M20" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C3:M18"/>
     <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DMA Competency Questions.xlsx
+++ b/DMA Competency Questions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B668ED3-7CDB-45C0-A03F-BDEF7F6038F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E69D10D-4713-4CC3-A621-CF1E479EFD28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" firstSheet="8" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="28" r:id="rId1"/>
@@ -68,100 +68,21 @@
     <t>Director of Sales of an entertainment company</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT ?person ( Count( distinct ?film) as ?count)
-WHERE {?person schema:title ?personTitle.
-?film ?contributor ?person.
-?film rdf:type schema:Movie.
-?film schema:genre dmaInst:SPY_FICTION.
-?autoG owl:annotatedProperty ?contributor.
-?autoG dbpedia:role ?labelTitle.
- FILTER regex(str(?personTitle), 'Daniel Craig')
-FILTER regex(str(?labelTitle), 'STAR')
-}Group by ?person</t>
-  </si>
-  <si>
     <t>person =&gt; Daniel_Craig    count =&gt; 1</t>
   </si>
   <si>
     <t>2. Which Martin Campbell films are based on books?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?film
-WHERE { ?person schema:title ?personTitle.
-?film ?contributor ?person.
-?film rdf:type schema:Movie.
-?film dbpedia:basedOn ?book.
-?book rdf:type schema:Book
- FILTER regex(str(?personTitle), 'Martin Campbell')}</t>
-  </si>
-  <si>
     <t>film =&gt; Casino_Royale</t>
   </si>
   <si>
     <t>3.	Which action films are directed by Martin Campbell?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?film
-WHERE { ?person schema:title ?personTitle.
-?film ?contributor ?person.
-?person  rdvocab:professionOrOccupation dmaInst:DIRECTOR.
-?film rdf:type schema:Movie.
-?film schema:genre dmaInst:ACTION.
-?autoG owl:annotatedProperty ?contributor.
-?autoG dbpedia:role ?labelTitle.
-FILTER regex(str(?personTitle), 'Martin Campbell')
-FILTER regex(str(?labelTitle), 'DIRECTOR')
-}</t>
-  </si>
-  <si>
     <t>4. How many films are based on Ian Flemings’s novels?</t>
   </si>
   <si>
-    <t xml:space="preserve">PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT ( Count(?film) as ?count) ?film
-WHERE { ?person schema:title ?personTitle.
-?book ?contributor ?person.
-?film rdf:type schema:Movie.
-?film dbpedia:basedOn ?book.
-?book rdf:type schema:Book.
-?person rdvocab:professionOrOccupation dmaInst:WRITER
-FILTER regex(str(?personTitle), 'Ian Fleming')}
-Group by ?film </t>
-  </si>
-  <si>
     <t>count =&gt; 2 ; film =&gt; Casino_Royale</t>
   </si>
   <si>
@@ -171,50 +92,12 @@
     <t>5. Which films are based on novel books?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT ?film ?book
-WHERE { 
-?film rdf:type schema:Movie.
-?film dbpedia:basedOn ?book.
-?book rdf:type schema:Book.
-?book schema:genre dmaInst:NOVEL }
-Group by ?film ?book</t>
-  </si>
-  <si>
     <t>film =&gt; Casino_Royale ; book=&gt; Casino_Royale_novel</t>
   </si>
   <si>
     <t>6. What media products are based on ‘James Bond’ character?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?product ?productClass
-WHERE { ?character schema:title ?personTitle.
-?product rdf:type ?productClass.
-?productClass rdfs:subClassOf dma:Product.
-?product ?contributor ?character.
-?character rdf:type dma:Character.
-?film dbpedia:basedOn ?book.
-?book rdf:type schema:Book.
- FILTER regex(str(?personTitle), 'James Bond')}</t>
-  </si>
-  <si>
     <t>product =&gt; Casino_Royale; productClass =&gt; Movie</t>
   </si>
   <si>
@@ -224,143 +107,27 @@
     <t>film =&gt; Casino_Royale, Euromaxx_Dosier_-_Mads_Mikkelsen</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT  DISTINCT ?film
-WHERE { ?person schema:title ?personTitle.
-?film ?contributor ?person.
-?person rdf:type schema:Person.
-?film rdf:type schema:Movie.
-?film dc:language dmaInst:EN.
-?autoG owl:annotatedProperty ?contributor.
-?autoG dbpedia:role ?labelTitle.
-FILTER regex(str(?labelTitle), 'STAR')
- FILTER regex(str(?personTitle), 'Mads Mikkelsen')}</t>
-  </si>
-  <si>
     <t>8. Which songs does David Arnold write, and produce?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT  DISTINCT ?song ?person ?role1 ?role2
-WHERE { ?person schema:title ?personTitle.
-?song ?contributor ?person.
-?person rdf:type schema:Person.
-?song rdf:type dma:Music.
-?autoG owl:annotatedProperty ?contributor.
-?autoG dbpedia:role ?role1.
-?autoG dbpedia:role ?role2.
-FILTER ( regex(str(?role1), 'WRITER') &amp;&amp; regex(str(?role2), 'PRODUCER'))
-FILTER regex(str(?personTitle), 'David Arnol')
-}</t>
-  </si>
-  <si>
     <t>SONG =&gt; Casino_Royale_Original_Sound_Track; PERSON =&gt; David_Arnol; role1 =&gt; WRITER ; role2=&gt; PRODUCER</t>
   </si>
   <si>
     <t>9. How many films are based on books?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT ( Count(?film) as ?count)
-WHERE { 
-?film rdf:type schema:Movie.
-?film dbpedia:basedOn ?book.
-?book rdf:type schema:Book}
-Group by ?film</t>
-  </si>
-  <si>
     <t>count =&gt; 1</t>
   </si>
   <si>
     <t>10. Which Chris Cornell songs are featured in films directed by Martin Campbell?</t>
   </si>
   <si>
-    <t xml:space="preserve">PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT  DISTINCT ?film ?song
-WHERE { ?filmPerson schema:title ?filmPersonTitle.
-?film ?contributor ?filmPerson.
-?filmPerson rdf:type schema:Person.
-?film rdf:type schema:Movie.
-?filmPerson rdvocab:professionOrOccupation dmaInst:DIRECTOR.
-?film schema:track ?song.
-?song ?contributor ?songPerson.
-?songPerson schema:title ?songPersonTitle.
-?songPerson rdf:type schema:Person.
-?song rdf:type schema:MusicRecording.
-?songPerson rdvocab:professionOrOccupation dmaInst:SINGER.
-?autoG owl:annotatedProperty ?contributor.
-?autoG dbpedia:role ?labelTitle.
-FILTER regex(str(?labelTitle), 'DIRECTOR') FILTER regex(str(?filmPersonTitle), 'Martin Campbell') FILTER regex(str(?songPersonTitle), 'Chris Cornell')
-}
-</t>
-  </si>
-  <si>
     <t>film=&gt; Casino_royale; song=&gt; You_Know_My_Name</t>
   </si>
   <si>
     <t>11. Which films feature collaborations between director Martin Campbell and actor Mads Mikkelsen?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT  DISTINCT ?film ?filmPerson1Title  ?filmPerson2Title
-WHERE { ?filmPerson1 schema:title ?filmPerson1Title.
-?filmPerson2 schema:title ?filmPerson2Title.
-?film ?contributor ?filmPerson1.
-?film ?contributor ?filmPerson2.
-?filmPerson1 rdf:type schema:Person.
-?filmPerson2 rdf:type schema:Person.
-?film rdf:type schema:Movie.
-?filmPerson1 rdvocab:professionOrOccupation dmaInst:DIRECTOR.
-?filmPerson2 rdvocab:professionOrOccupation dmaInst:ACTOR.
-FILTER regex(str(?filmPerson1Title), 'Martin Campbell')
-FILTER regex(str(?filmPerson2Title), 'Mads Mikkelsen')}</t>
-  </si>
-  <si>
     <t>film =&gt; Casino_Royale; filmPerson1Title=&gt;Martin Cambell; filmPerson2Title=&gt;Mads Mikkelsen</t>
   </si>
   <si>
@@ -370,25 +137,6 @@
     <t>count=&gt; 0</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT ( Count(?film) as ?count)
-WHERE { 
-?film rdf:type schema:Movie;
-dc:language dmaInst:JAPANESE;
-schema:genre dmaInst:MANGA.
-}
-Group by ?film</t>
-  </si>
-  <si>
     <t xml:space="preserve"> count =&gt; 0</t>
   </si>
   <si>
@@ -398,215 +146,39 @@
     <t>15. On which feature/adventure genre films did Hans Zimmer provide the score?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT  DISTINCT ?film ?genre
-WHERE {?film schema:genre dmaInst:ADVENTURE.
-?film rdf:type schema:Movie.
-?film schema:track ?song.
-?songPerson schema:title ?songPersonTitle.
-?song ?contributor ?songPerson.
-?songPerson rdf:type schema:Person.
-?song rdf:type schema:MusicRecording.
-?songPerson rdvocab:professionOrOccupation dmaInst:MUSICIAN
-FILTER regex(str(?songPersonTitle), 'Hans Zimmer')
-}</t>
-  </si>
-  <si>
     <t>16. On which media products is Robert Wade credited as a writer?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?product ?writer
-WHERE { ?writer schema:title ?personTitle.
-?product rdf:type ?productClass.
-?productClass rdfs:subClassOf dma:Product.
-?product ?contributor ?writer.
-?writer rdf:type schema:Person.
-?writer rdvocab:professionOrOccupation dmaInst:WRITER.
-?autoG owl:annotatedProperty ?contributor.
-?autoG dbpedia:role ?labelTitle.
-FILTER regex(str(?labelTitle), 'WRITER')
-FILTER regex(str(?personTitle), 'Robert Wade')}</t>
-  </si>
-  <si>
     <t>produc =&gt; Casino_Royale    writer =&gt; Robert_Wade</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT  (Count(?film) as ?count)
-WHERE { ?filmPerson1 schema:title ?filmPerson1Title.
-?filmPerson2 schema:title ?filmPerson2Title.
-?film ?contributor ?filmPerson1.
-?film ?contributor ?filmPerson2.
-?filmPerson1 rdf:type schema:Person.
-?filmPerson2 rdf:type schema:Person.
-?film rdf:type schema:Movie.
-?filmPerson1 rdvocab:professionOrOccupation dmaInst:DIRECTOR.
-?filmPerson2 rdvocab:professionOrOccupation dmaInst:WRITER.
-FILTER regex(str(?filmPerson1Title), 'Martin Campbell')
-FILTER regex(str(?filmPerson2Title), 'Jerry Bruckheimer')
-}</t>
-  </si>
-  <si>
     <t>14. On how many films did director Martin Campbell and producer Jerry Bruckheimer collaborate?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?product
-WHERE { ?character schema:title ?personTitle.
-?product rdf:type ?productClass.
-?productClass rdfs:subClassOf dma:Product.
-?product ?contributor ?character.
-?character rdf:type dma:Character.
-FILTER regex(str(?personTitle), 'Le Chiffre')}</t>
-  </si>
-  <si>
     <t>13. Which media products are directly related to the character of Le Chiffre?</t>
   </si>
   <si>
     <t xml:space="preserve"> product =&gt; Casino_Royale</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT (Count (?film) as ?count)
-WHERE { ?person schema:title ?personTitle.
-?film ?contributor ?person.
-?film rdf:type schema:Movie.
-?film dbpedia:basedOn ?book.
-?book rdf:type schema:Book
- FILTER regex(str(?personTitle), 'Mads Mikkelsen')}
-Group by ?film</t>
-  </si>
-  <si>
     <t>17. How many films starring Mads Mikkelsen were based on books?</t>
   </si>
   <si>
     <t>18. Which films feature Mads Mikkelsen in a voice role?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT distinct ?film
-WHERE { ?person schema:title ?personTitle.
-?film ?contributor ?person.
-?film rdf:type schema:Movie.
-?autoG owl:annotatedProperty ?contributor.
-?autoG dbpedia:role ?labelTitle.
-FILTER regex(str(?labelTitle), 'VOICE')
-FILTER regex(str(?personTitle), 'Mads Mikkelsen')
-}</t>
-  </si>
-  <si>
     <t>film =&gt; N/A</t>
   </si>
   <si>
     <t>19. Which media products credit Daniel Craig in a lead role (artist/actor/voice)?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?product ?person ?ocupation
-WHERE { ?person schema:title ?personTitle.
-?product rdf:type ?productClass.
-?productClass rdfs:subClassOf dma:Product.
-?product ?contributor ?person.
-?person rdf:type schema:Person.
-?person rdvocab:professionOrOccupation ?ocupation.
-?autoG owl:annotatedProperty ?contributor.
-?autoG dbpedia:role ?labelTitle1.
-?autoG dbpedia:role ?labelTitle2.
-?autoG dbpedia:role ?labelTitle3.
-FILTER ( regex(str(?personTitle), 'Daniel Craig') &amp;&amp; (  (?ocupation = dmaInst:ACTOR)  ||  (?ocupation = dmaInst:ARTIST) || (?ocupation = dmaInst:VOICE) )
-) }</t>
-  </si>
-  <si>
     <t>product=&gt; Casino_Royale; person =&gt; Daniel_Craig; occupation=&gt;ACTOR</t>
   </si>
   <si>
     <t>20. Which stand-up action shows have been released on DVD/Blu-ray or audio CD?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT ?product ?format
-WHERE { 
-?product rdf:type ?productClass.
-?productClass rdfs:subClassOf dma:Product.
-?product schema:genre dmaInst:ACTION.
-?product schema:encodingFormat ?format.
-FILTER  ( (?format = dmaInst:BLUE-RAY) || (?format = dmaInst:CD) )
-}</t>
-  </si>
-  <si>
     <t>product=&gt;Casino_Royale; format=&gt;BLUE-RAY</t>
   </si>
   <si>
@@ -619,27 +191,6 @@
     <t>21. What order should the Ian Fleming series be read in?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT ?bookSerie ?order
-WHERE {  ?person schema:title ?personTitle.
-         ?bookSerie ?contributor ?person.
-?bookSerie rdf:type schema:Book;
-dma:seriesPart ?order
-FILTER (regex(str(?personTitle), 'Ian Fleming')) 
-}
-GROUP by  ?bookSerie ?order
-Order by  ?bookSerie ?order</t>
-  </si>
-  <si>
     <t>22. Which books feature collaborations between Julia Donaldson and Axel Scheffler?</t>
   </si>
   <si>
@@ -649,205 +200,34 @@
     <t>23. Which graphic novels are adaptations of classic novels?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX property:&lt;http://dbpedia.org/property/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?graphicNovel ?classicNovel
-WHERE { 
-?classicNovel rdf:type ?Book.
-?classicNovel schema:genre dmaInst:CLASSIC_NOVEL.
-?classicNovel property:adaptation ?graphicNovel.
-?graphicNovel rdf:type ?Book.
-?graphicNovel schema:genre dmaInst:GRAPHIC_NOVEL. 
-}
- Group by ?graphicNovel ?classicNovel</t>
-  </si>
-  <si>
     <t>graphicNovel=&gt;N/A; classicNovel=&gt; N/A</t>
   </si>
   <si>
     <t>24. Which titles about James Bond book have Ian Fleming as a contributor?</t>
   </si>
   <si>
-    <t xml:space="preserve">PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX property:&lt;http://dbpedia.org/property/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?bookTitle
-WHERE { 
-?Book schema:title ?bookTitle.
-?Book rdf:type schema:Book.
-?Book dma:series ?series.
-?Book schema:contributor ?contributor.
-?contributor schema:title ?contributorTitle.
-FILTER regex(str(?series), 'James Bond')
-FILTER regex(str(?contributorTitle), 'Ian Fleming')
-} </t>
-  </si>
-  <si>
     <t>bookTitle=&gt;Casino Royale; Dr.No</t>
   </si>
   <si>
     <t>25. Which authors have written books in the James Bond series?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX property:&lt;http://dbpedia.org/property/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?author
-WHERE { {
-?book rdf:type schema:Book.
-?book dma:series ?seriesTitle.
-?book schema:author ?author.
-?author rdf:type schema:Person.
-?author rdvocab:professionOrOccupation dmaInst:WRITER.
-FILTER regex(str(?seriesTitle), 'James Bond')}
-UNION
-{?book rdf:type schema:Book.
-?book dma:series ?seriesTitle.
-?book dma:contributor?contributor.
-?contributor rdf:type schema:Person.
-?contributor rdvocab:professionOrOccupation dmaInst:WRITER.
-FILTER regex(str(?seriesTitle), 'James Bond')}}</t>
-  </si>
-  <si>
     <t>author=&gt;Ian_Fleming</t>
   </si>
   <si>
     <t>book=&gt;N/A</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT  ?book ?bookPerson1 ?bookPerson2
-WHERE { ?bookPerson1 schema:title ?bookPerson1Title.
-?bookPerson2 schema:title ?bookPerson2Title.
-?book ?contributor ?bookPerson1.
-?book ?contributor ?bookPerson2.
-?bookPerson1 rdf:type schema:Person.
-?bookPerson2 rdf:type schema:Person.
-?book rdf:type schema:Book.
-FILTER regex(str(?bookPerson1Title), 'Julia Donaldson')
-FILTER regex(str(?bookPerson2Title), 'Axel Scheffler')
-FILTER  ( (?bookPerson1 != ?bookPerson2))
-}
-Group by ?book ?bookPerson1 ?</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?author  
-WHERE { 
-?book schema:author ?author.
-?baseBook schema:title ?baseBookTitle.
-?author rdf:type schema:Person.
-?book dbpedia:basedOn ?baseBook.
-?book rdf:type schema:Book.
-?author rdvocab:professionOrOccupation dmaInst:WRITER.
-FILTER regex(str(?baseBookTitle), 'Casino Royale').
-}</t>
-  </si>
-  <si>
     <t>author=&gt; N/A</t>
   </si>
   <si>
     <t>27. Which media products are related to James Bond Series?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt; PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt; PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt; PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?baseProduct ?product_1  ?product_2
-WHERE { 
-?productBase rdf:type dma:Product.
-?product_1 rdf:type dma:Product.
-?product_2 rdf:type dma:Product.
-?productBase ?rel_1 ?product_1.
-?product_1 ?rel_2 ?product2.
-?baseProduct schema:title ?baseProductTitle.
-?baseProduct dma:series ?seriesTitle.
-FILTER (regex(str(?baseProductTitle), 'Casino Royale') || (regex(str(?seriesTitle), 'James Bond')))
-FILTER (?product_2!=?product_1)  
-FILTER (?product_1!=?baseProduct)
-FILTER (?product_1!=?product_2)
-}</t>
-  </si>
-  <si>
     <t>THIS QUERY RECOVER A LIST TOO LARGE TO INCLUDE IT HERE</t>
   </si>
   <si>
     <t>28. How many different versions are there of Agatha Christie’s novel The Mystery of the Blue Train?</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt; PREFIX dbpedia:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt; PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt; PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct (Count(?version) as ?count)
-WHERE { {
-?book schema:sameAs ?version.
-?book rdf:type schema:Book.
-?book schema:title ?bookTitle.
-?book schema:autor ?author.
-?author schema:title ?authorTitle.
-?author rdf:type dmaInst:Person.
-?author rdvocab:professionOrOccupation dmaInst:WRITER.
-FILTER regex(str(?authorTitle), 'Agatha Christie')
-FILTER regex(str(?bookTitle), 'The Mystery of the Blue Train')}
-UNION  {
-?version dbpedia:basedOn ?book.
-?book rdf:type schema:Book.
-?book schema:title ?bookTitle.
-?book schema:autor ?author.
-?author schema:title ?authorTitle.
-?author rdf:type dmaInst:Person.
-?author rdvocab:professionOrOccupation dmaInst:WRITER.
-FILTER regex(str(?authorTitle), 'Agatha Christie')
-FILTER regex(str(?bookTitle), 'The Mystery of the Blue Train')}
-}
-Group by ?version</t>
   </si>
   <si>
     <t xml:space="preserve">NOTE: This result only corresponds to query the  following example: "JamesBond Case Study". </t>
@@ -896,6 +276,626 @@
   </si>
   <si>
     <t>License: Creative Commons Attribution 4.0 International License</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT ?person ( Count( distinct ?film) as ?count)
+WHERE {?person schema:title ?personTitle.
+?film ?contributor ?person.
+?film rdf:type schema:Movie.
+?film schema:genre dmaInst:SPY_FICTION.
+?autoG owl:annotatedProperty ?contributor.
+?autoG dbo:role ?labelTitle.
+ FILTER regex(str(?personTitle), 'Daniel Craig')
+FILTER regex(str(?labelTitle), 'STAR')
+}Group by ?person</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?film
+WHERE { ?person schema:title ?personTitle.
+?film ?contributor ?person.
+?film rdf:type schema:Movie.
+?film dbo:basedOn ?book.
+?book rdf:type schema:Book
+ FILTER regex(str(?personTitle), 'Martin Campbell')}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?film
+WHERE { ?person schema:title ?personTitle.
+?film ?contributor ?person.
+?person  rdvocab:professionOrOccupation dmaInst:DIRECTOR.
+?film rdf:type schema:Movie.
+?film schema:genre dmaInst:ACTION.
+?autoG owl:annotatedProperty ?contributor.
+?autoG dbo:role ?labelTitle.
+FILTER regex(str(?personTitle), 'Martin Campbell')
+FILTER regex(str(?labelTitle), 'DIRECTOR')
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT ( Count(?film) as ?count) ?film
+WHERE { ?person schema:title ?personTitle.
+?book ?contributor ?person.
+?film rdf:type schema:Movie.
+?film dbo:basedOn ?book.
+?book rdf:type schema:Book.
+?person rdvocab:professionOrOccupation dmaInst:WRITER
+FILTER regex(str(?personTitle), 'Ian Fleming')}
+Group by ?film </t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT ?film ?book
+WHERE { 
+?film rdf:type schema:Movie.
+?film dbo:basedOn ?book.
+?book rdf:type schema:Book.
+?book schema:genre dmaInst:NOVEL }
+Group by ?film ?book</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT  DISTINCT ?film
+WHERE { ?person schema:title ?personTitle.
+?film ?contributor ?person.
+?person rdf:type schema:Person.
+?film rdf:type schema:Movie.
+?film dc:language dmaInst:EN.
+?autoG owl:annotatedProperty ?contributor.
+?autoG dbo:role ?labelTitle.
+FILTER regex(str(?labelTitle), 'STAR')
+ FILTER regex(str(?personTitle), 'Mads Mikkelsen')}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT  DISTINCT ?song ?person ?role1 ?role2
+WHERE { ?person schema:title ?personTitle.
+?song ?contributor ?person.
+?person rdf:type schema:Person.
+?song rdf:type dma:Music.
+?autoG owl:annotatedProperty ?contributor.
+?autoG dbo:role ?role1.
+?autoG dbo:role ?role2.
+FILTER ( regex(str(?role1), 'WRITER') &amp;&amp; regex(str(?role2), 'PRODUCER'))
+FILTER regex(str(?personTitle), 'David Arnol')
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT ( Count(?film) as ?count)
+WHERE { 
+?film rdf:type schema:Movie.
+?film dbo:basedOn ?book.
+?book rdf:type schema:Book}
+Group by ?film</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT  DISTINCT ?film ?song
+WHERE { ?filmPerson schema:title ?filmPersonTitle.
+?film ?contributor ?filmPerson.
+?filmPerson rdf:type schema:Person.
+?film rdf:type schema:Movie.
+?filmPerson rdvocab:professionOrOccupation dmaInst:DIRECTOR.
+?film schema:track ?song.
+?song ?contributor ?songPerson.
+?songPerson schema:title ?songPersonTitle.
+?songPerson rdf:type schema:Person.
+?song rdf:type schema:MusicRecording.
+?songPerson rdvocab:professionOrOccupation dmaInst:SINGER.
+?autoG owl:annotatedProperty ?contributor.
+?autoG dbo:role ?labelTitle.
+FILTER regex(str(?labelTitle), 'DIRECTOR') FILTER regex(str(?filmPersonTitle), 'Martin Campbell') FILTER regex(str(?songPersonTitle), 'Chris Cornell')
+}
+</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT  DISTINCT ?film ?filmPerson1Title  ?filmPerson2Title
+WHERE { ?filmPerson1 schema:title ?filmPerson1Title.
+?filmPerson2 schema:title ?filmPerson2Title.
+?film ?contributor ?filmPerson1.
+?film ?contributor ?filmPerson2.
+?filmPerson1 rdf:type schema:Person.
+?filmPerson2 rdf:type schema:Person.
+?film rdf:type schema:Movie.
+?filmPerson1 rdvocab:professionOrOccupation dmaInst:DIRECTOR.
+?filmPerson2 rdvocab:professionOrOccupation dmaInst:ACTOR.
+FILTER regex(str(?filmPerson1Title), 'Martin Campbell')
+FILTER regex(str(?filmPerson2Title), 'Mads Mikkelsen')}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT ( Count(?film) as ?count)
+WHERE { 
+?film rdf:type schema:Movie;
+dc:language dmaInst:JAPANESE;
+schema:genre dmaInst:MANGA.
+}
+Group by ?film</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT  (Count(?film) as ?count)
+WHERE { ?filmPerson1 schema:title ?filmPerson1Title.
+?filmPerson2 schema:title ?filmPerson2Title.
+?film ?contributor ?filmPerson1.
+?film ?contributor ?filmPerson2.
+?filmPerson1 rdf:type schema:Person.
+?filmPerson2 rdf:type schema:Person.
+?film rdf:type schema:Movie.
+?filmPerson1 rdvocab:professionOrOccupation dmaInst:DIRECTOR.
+?filmPerson2 rdvocab:professionOrOccupation dmaInst:WRITER.
+FILTER regex(str(?filmPerson1Title), 'Martin Campbell')
+FILTER regex(str(?filmPerson2Title), 'Jerry Bruckheimer')
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT  DISTINCT ?film ?genre
+WHERE {?film schema:genre dmaInst:ADVENTURE.
+?film rdf:type schema:Movie.
+?film schema:track ?song.
+?songPerson schema:title ?songPersonTitle.
+?song ?contributor ?songPerson.
+?songPerson rdf:type schema:Person.
+?song rdf:type schema:MusicRecording.
+?songPerson rdvocab:professionOrOccupation dmaInst:MUSICIAN
+FILTER regex(str(?songPersonTitle), 'Hans Zimmer')
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT (Count (?film) as ?count)
+WHERE { ?person schema:title ?personTitle.
+?film ?contributor ?person.
+?film rdf:type schema:Movie.
+?film dbo:basedOn ?book.
+?book rdf:type schema:Book
+ FILTER regex(str(?personTitle), 'Mads Mikkelsen')}
+Group by ?film</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT distinct ?film
+WHERE { ?person schema:title ?personTitle.
+?film ?contributor ?person.
+?film rdf:type schema:Movie.
+?autoG owl:annotatedProperty ?contributor.
+?autoG dbo:role ?labelTitle.
+FILTER regex(str(?labelTitle), 'VOICE')
+FILTER regex(str(?personTitle), 'Mads Mikkelsen')
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT ?bookSerie ?order
+WHERE {  ?person schema:title ?personTitle.
+         ?bookSerie ?contributor ?person.
+?bookSerie rdf:type schema:Book;
+dma:seriesPart ?order
+FILTER (regex(str(?personTitle), 'Ian Fleming')) 
+}
+GROUP by  ?bookSerie ?order
+Order by  ?bookSerie ?order</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT  ?book ?bookPerson1 ?bookPerson2
+WHERE { ?bookPerson1 schema:title ?bookPerson1Title.
+?bookPerson2 schema:title ?bookPerson2Title.
+?book ?contributor ?bookPerson1.
+?book ?contributor ?bookPerson2.
+?bookPerson1 rdf:type schema:Person.
+?bookPerson2 rdf:type schema:Person.
+?book rdf:type schema:Book.
+FILTER regex(str(?bookPerson1Title), 'Julia Donaldson')
+FILTER regex(str(?bookPerson2Title), 'Axel Scheffler')
+FILTER  ( (?bookPerson1 != ?bookPerson2))
+}
+Group by ?book ?bookPerson1 ?</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbp:&lt;http://dbpedia.org/property/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?graphicNovel ?classicNovel
+WHERE { 
+?classicNovel rdf:type ?Book.
+?classicNovel schema:genre dmaInst:CLASSIC_NOVEL.
+?classicNovel dbp:adaptation ?graphicNovel.
+?graphicNovel rdf:type ?Book.
+?graphicNovel schema:genre dmaInst:GRAPHIC_NOVEL. 
+}
+ Group by ?graphicNovel ?classicNovel</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?author  
+WHERE { 
+?book schema:author ?author.
+?baseBook schema:title ?baseBookTitle.
+?author rdf:type schema:Person.
+?book dbo:basedOn ?baseBook.
+?book rdf:type schema:Book.
+?author rdvocab:professionOrOccupation dmaInst:WRITER.
+FILTER regex(str(?baseBookTitle), 'Casino Royale').
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt; PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt; PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt; PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct (Count(?version) as ?count)
+WHERE { {
+?book schema:sameAs ?version.
+?book rdf:type schema:Book.
+?book schema:title ?bookTitle.
+?book schema:autor ?author.
+?author schema:title ?authorTitle.
+?author rdf:type dmaInst:Person.
+?author rdvocab:professionOrOccupation dmaInst:WRITER.
+FILTER regex(str(?authorTitle), 'Agatha Christie')
+FILTER regex(str(?bookTitle), 'The Mystery of the Blue Train')}
+UNION  {
+?version dbo:basedOn ?book.
+?book rdf:type schema:Book.
+?book schema:title ?bookTitle.
+?book schema:autor ?author.
+?author schema:title ?authorTitle.
+?author rdf:type dmaInst:Person.
+?author rdvocab:professionOrOccupation dmaInst:WRITER.
+FILTER regex(str(?authorTitle), 'Agatha Christie')
+FILTER regex(str(?bookTitle), 'The Mystery of the Blue Train')}
+}
+Group by ?version</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?product ?productClass
+WHERE { ?character schema:title ?personTitle.
+?product rdf:type ?productClass.
+?productClass rdfs:subClassOf schema:Product.
+?product ?contributor ?character.
+?character rdf:type dma:Character.
+?film dbo:basedOn ?book.
+?book rdf:type schema:Book.
+ FILTER regex(str(?personTitle), 'James Bond')}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?product
+WHERE { ?character schema:title ?personTitle.
+?product rdf:type ?productClass.
+?productClass rdfs:subClassOf schema:Product.
+?product ?contributor ?character.
+?character rdf:type dma:Character.
+FILTER regex(str(?personTitle), 'Le Chiffre')}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?product ?writer
+WHERE { ?writer schema:title ?personTitle.
+?product rdf:type ?productClass.
+?productClass rdfs:subClassOf schema:Product.
+?product ?contributor ?writer.
+?writer rdf:type schema:Person.
+?writer rdvocab:professionOrOccupation dmaInst:WRITER.
+?autoG owl:annotatedProperty ?contributor.
+?autoG dbo:role ?labelTitle.
+FILTER regex(str(?labelTitle), 'WRITER')
+FILTER regex(str(?personTitle), 'Robert Wade')}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?product ?person ?ocupation
+WHERE { ?person schema:title ?personTitle.
+?product rdf:type ?productClass.
+?productClass rdfs:subClassOf schema:Product.
+?product ?contributor ?person.
+?person rdf:type schema:Person.
+?person rdvocab:professionOrOccupation ?ocupation.
+?autoG owl:annotatedProperty ?contributor.
+?autoG dbo:role ?labelTitle1.
+?autoG dbo:role ?labelTitle2.
+?autoG dbo:role ?labelTitle3.
+FILTER ( regex(str(?personTitle), 'Daniel Craig') &amp;&amp; (  (?ocupation = dmaInst:ACTOR)  ||  (?ocupation = dmaInst:ARTIST) || (?ocupation = dmaInst:VOICE) )
+) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT ?product ?format
+WHERE { 
+?product rdf:type ?productClass.
+?productClass rdfs:subClassOf schema:Product.
+?product schema:genre dmaInst:ACTION.
+?product schema:encodingFormat ?format.
+FILTER  ( (?format = dmaInst:BLUE-RAY) || (?format = dmaInst:CD) )
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbp:&lt;http://dbpedia.org/property/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;  PREFIX purl:  &lt;http://purl.org/ontology/po/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?author
+WHERE { {
+?book rdf:type schema:Book.
+?book purl:series ?seriesTitle.
+?book schema:author ?author.
+?author rdf:type schema:Person.
+?author rdvocab:professionOrOccupation dmaInst:WRITER.
+FILTER regex(str(?seriesTitle), 'James Bond')}
+UNION
+{?book rdf:type schema:Book.
+?book purl:series ?seriesTitle.
+?book dma:contributor?contributor.
+?contributor rdf:type schema:Person.
+?contributor rdvocab:professionOrOccupation dmaInst:WRITER.
+FILTER regex(str(?seriesTitle), 'James Bond')}}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt; PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt; PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt; PREFIX purl:  &lt;http://purl.org/ontology/po/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt; PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?baseProduct ?product_1  ?product_2
+WHERE { 
+?productBase rdf:type schema:Product.
+?product_1 rdf:type schema:Product.
+?product_2 rdf:type schema:Product.
+?productBase ?rel_1 ?product_1.
+?product_1 ?rel_2 ?product2.
+?baseProduct schema:title ?baseProductTitle.
+?baseProduct purl:series ?seriesTitle.
+FILTER (regex(str(?baseProductTitle), 'Casino Royale') || (regex(str(?seriesTitle), 'James Bond')))
+FILTER (?product_2!=?product_1)  
+FILTER (?product_1!=?baseProduct)
+FILTER (?product_1!=?product_2)
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbp:&lt;http://dbpedia.org/property/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt; PREFIX purl:  &lt;http://purl.org/ontology/po/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?bookTitle
+WHERE { 
+?Book schema:title ?bookTitle.
+?Book rdf:type schema:Book.
+?Book purl:series ?series.
+?Book schema:contributor ?contributor.
+?contributor schema:title ?contributorTitle.
+FILTER regex(str(?series), 'James Bond')
+FILTER regex(str(?contributorTitle), 'Ian Fleming')
+} </t>
   </si>
 </sst>
 </file>
@@ -1069,12 +1069,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1086,6 +1080,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1370,18 +1370,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E951F-25D7-4945-9828-1296B902BBDE}">
   <dimension ref="C3:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="65.7265625" customWidth="1"/>
+    <col min="5" max="5" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1394,7 +1394,7 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1407,7 +1407,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1420,7 +1420,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1433,7 +1433,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1446,7 +1446,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1459,7 +1459,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1472,7 +1472,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1485,7 +1485,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1498,7 +1498,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1511,7 +1511,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1524,7 +1524,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1537,7 +1537,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1550,7 +1550,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1563,7 +1563,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1576,7 +1576,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="3:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1589,33 +1589,33 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" spans="3:13" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="3:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1632,26 +1632,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C562F1-D7FC-4C70-8A76-BBDB6C550585}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1659,26 +1659,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1691,26 +1691,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39371998-AABE-476E-AA15-BDC6DEE20F32}">
   <dimension ref="C2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1718,29 +1718,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
     </row>
   </sheetData>
@@ -1753,26 +1753,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB704D81-CA88-4D04-8F1B-FDACD19077F5}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1780,26 +1780,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1812,26 +1812,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E544D0-1814-4CC2-8F39-A58F37B469AE}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1839,26 +1839,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1871,26 +1871,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793A0034-2735-4DA0-96DE-08D4FD1451BE}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1898,26 +1898,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1930,26 +1930,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5448619C-FD15-4D1A-9132-00D96393226B}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1957,26 +1957,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1989,26 +1989,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AEEB1C-9C23-4ECB-ABC3-C2A826193370}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2016,26 +2016,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2048,26 +2048,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1ADB9AF-CB4C-4AD4-BCE7-13388FFFC637}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2075,26 +2075,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2107,26 +2107,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B6056F-C83E-47E8-A03A-48D8E303CAD3}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2134,26 +2134,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2166,26 +2166,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BC55F8-0E74-4A91-A4FC-6C63383121D8}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2193,26 +2193,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2225,18 +2225,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2252,26 +2252,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -2285,26 +2285,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8FA42-64F8-4F60-A487-55E0F6A013D3}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2312,26 +2312,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="10" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D6" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2344,26 +2344,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A030ADF-C27B-44E5-AC5C-4DC24DAD761B}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2371,26 +2371,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2403,53 +2403,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426BD60C-D57E-4DA0-87F3-DF1E55EFFAD5}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2462,53 +2462,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7E8101-2DE7-48DD-AF77-30AAAB7AB1CA}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2521,53 +2521,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FC5A4B-0FD8-4B09-AC61-FA1238EE13BF}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2580,53 +2580,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D514C6-0C53-436C-948A-E486DEFDF6F7}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2640,52 +2640,52 @@
   <dimension ref="C2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="407.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2698,58 +2698,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACA2D4D-85C9-4956-9692-0A411DBE40E9}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="5" max="5" width="53.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2765,26 +2765,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BE6BE5-3C68-4977-A27F-C090CB9CAE0D}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2792,26 +2792,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2824,53 +2824,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC47EE6E-3034-4D68-AACB-F69D5EC6BC7C}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2883,26 +2883,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75799053-935E-4834-8CB6-BC5770C395F8}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2910,26 +2910,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2942,26 +2942,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B1682F-A0F5-4A61-8633-A1809F6A21F9}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2969,26 +2969,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3001,26 +3001,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15468B97-F14D-4D6B-9A2E-7CA09044C8E2}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3028,26 +3028,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3060,26 +3060,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB772F7F-EC05-41DE-BFAD-48BE6416E988}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3087,26 +3087,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3119,26 +3119,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235C1189-F1A4-40A8-A3E6-B16E6E6B4D17}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3146,26 +3146,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3178,26 +3178,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D958FE2-8257-45D5-90C4-0728B6D69D75}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3205,26 +3205,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3237,26 +3237,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D3414F-806E-4AA2-B36D-611714C43E3E}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.26953125" customWidth="1"/>
+    <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3264,26 +3264,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/DMA Competency Questions.xlsx
+++ b/DMA Competency Questions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E69D10D-4713-4CC3-A621-CF1E479EFD28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09744CE1-C1C5-4708-BB6F-7D7331D4CE4B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" firstSheet="8" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="28" r:id="rId1"/>
@@ -826,6 +826,50 @@
 }</t>
   </si>
   <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt; PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt; PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt; PREFIX purl:  &lt;http://purl.org/ontology/po/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt; PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?baseProduct ?product_1  ?product_2
+WHERE { 
+?productBase rdf:type schema:Product.
+?product_1 rdf:type schema:Product.
+?product_2 rdf:type schema:Product.
+?productBase ?rel_1 ?product_1.
+?product_1 ?rel_2 ?product2.
+?baseProduct schema:title ?baseProductTitle.
+?baseProduct purl:series ?seriesTitle.
+FILTER (regex(str(?baseProductTitle), 'Casino Royale') || (regex(str(?seriesTitle), 'James Bond')))
+FILTER (?product_2!=?product_1)  
+FILTER (?product_1!=?baseProduct)
+FILTER (?product_1!=?product_2)
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbp:&lt;http://dbpedia.org/property/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt; PREFIX purl:  &lt;http://purl.org/ontology/po/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?bookTitle
+WHERE { 
+?Book schema:title ?bookTitle.
+?Book rdf:type schema:Book.
+?Book purl:series ?series.
+?Book schema:contributor ?contributor.
+?contributor schema:title ?contributorTitle.
+FILTER regex(str(?series), 'James Bond')
+FILTER regex(str(?contributorTitle), 'Ian Fleming')
+} </t>
+  </si>
+  <si>
     <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
@@ -848,54 +892,10 @@
 UNION
 {?book rdf:type schema:Book.
 ?book purl:series ?seriesTitle.
-?book dma:contributor?contributor.
+?book dma:contributor ?contributor.
 ?contributor rdf:type schema:Person.
 ?contributor rdvocab:professionOrOccupation dmaInst:WRITER.
 FILTER regex(str(?seriesTitle), 'James Bond')}}</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt; PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt; PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt; PREFIX purl:  &lt;http://purl.org/ontology/po/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt; PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?baseProduct ?product_1  ?product_2
-WHERE { 
-?productBase rdf:type schema:Product.
-?product_1 rdf:type schema:Product.
-?product_2 rdf:type schema:Product.
-?productBase ?rel_1 ?product_1.
-?product_1 ?rel_2 ?product2.
-?baseProduct schema:title ?baseProductTitle.
-?baseProduct purl:series ?seriesTitle.
-FILTER (regex(str(?baseProductTitle), 'Casino Royale') || (regex(str(?seriesTitle), 'James Bond')))
-FILTER (?product_2!=?product_1)  
-FILTER (?product_1!=?baseProduct)
-FILTER (?product_1!=?product_2)
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbp:&lt;http://dbpedia.org/property/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt; PREFIX purl:  &lt;http://purl.org/ontology/po/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?bookTitle
-WHERE { 
-?Book schema:title ?bookTitle.
-?Book rdf:type schema:Book.
-?Book purl:series ?series.
-?Book schema:contributor ?contributor.
-?contributor schema:title ?contributorTitle.
-FILTER regex(str(?series), 'James Bond')
-FILTER regex(str(?contributorTitle), 'Ian Fleming')
-} </t>
   </si>
 </sst>
 </file>
@@ -2580,7 +2580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D514C6-0C53-436C-948A-E486DEFDF6F7}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2612,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2639,7 +2639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2DC1B-5B17-422E-BF11-20C02A074ABD}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2671,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2797,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2883,7 +2883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75799053-935E-4834-8CB6-BC5770C395F8}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
